--- a/data/Контрольная работа № 2 (Общая экология 2021)(1-11).xlsx
+++ b/data/Контрольная работа № 2 (Общая экология 2021)(1-11).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9407"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Mail</t>
   </si>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t>Георгий Данелия</t>
+  </si>
+  <si>
+    <t>st090747@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Алена Иванова</t>
   </si>
 </sst>
 </file>
@@ -660,10 +666,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -674,18 +680,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,14 +708,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -719,8 +716,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -744,10 +748,63 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,43 +823,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,22 +830,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,6 +841,132 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,103 +978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,72 +1014,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1030,24 +1042,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,7 +1055,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,11 +1090,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,6 +1131,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1131,149 +1154,150 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,10 +1634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2787,6 +2811,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/Контрольная работа № 2 (Общая экология 2021)(1-11).xlsx
+++ b/data/Контрольная работа № 2 (Общая экология 2021)(1-11).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <t>Марина Азарова</t>
   </si>
   <si>
-    <t>st061423@ad.pu.ru</t>
+    <t>st061423@student.spbu.ru</t>
   </si>
   <si>
     <t>Диана Валевская</t>
@@ -666,9 +666,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -680,25 +680,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9.75"/>
+      <color rgb="FF5C6993"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -708,32 +693,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,10 +717,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,24 +747,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,9 +764,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,6 +780,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,14 +829,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -846,19 +845,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,6 +929,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -877,150 +1020,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1054,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,26 +1089,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,6 +1124,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1137,21 +1147,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,144 +1159,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,8 +1636,8 @@
   <sheetPr/>
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2812,10 +2812,10 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C107">

--- a/data/Контрольная работа № 2 (Общая экология 2021)(1-11).xlsx
+++ b/data/Контрольная работа № 2 (Общая экология 2021)(1-11).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Mail</t>
   </si>
@@ -659,6 +659,18 @@
   </si>
   <si>
     <t>Алена Иванова</t>
+  </si>
+  <si>
+    <t>st071537@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Степан Озеров</t>
+  </si>
+  <si>
+    <t>st068449@ad.pu.ru</t>
+  </si>
+  <si>
+    <t>Карина Юрьева</t>
   </si>
 </sst>
 </file>
@@ -666,12 +678,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,7 +699,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,7 +775,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,52 +790,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -770,16 +797,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,13 +819,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -808,29 +827,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,192 +864,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1046,6 +1071,56 @@
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,30 +1149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1109,17 +1160,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,19 +1183,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,145 +1195,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,10 +1674,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2822,6 +2862,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="7">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
